--- a/Controle de Atividades em andamento.xlsx
+++ b/Controle de Atividades em andamento.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Lista de Entregáveis</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -242,9 +245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -294,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,329 +623,343 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="9" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:C29">
     <filterColumn colId="2">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="?"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">

--- a/Controle de Atividades em andamento.xlsx
+++ b/Controle de Atividades em andamento.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Controle de Atividades em andamento.xlsx
+++ b/Controle de Atividades em andamento.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
-    <t>Lista de Entregáveis</t>
-  </si>
-  <si>
     <t>AP1</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Lista de Topicos de APs</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,27 +637,27 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,290 +667,290 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5"/>
     </row>

--- a/Controle de Atividades em andamento.xlsx
+++ b/Controle de Atividades em andamento.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>AP1</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Lista de Topicos de APs</t>
@@ -623,7 +620,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +634,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -720,14 +717,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -762,15 +761,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -833,9 +832,7 @@
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -936,14 +933,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
@@ -957,9 +956,7 @@
   </sheetData>
   <autoFilter ref="A3:C29">
     <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="?"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="2">
